--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -525,6 +525,9 @@
       <c r="C11" t="str">
         <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
       </c>
+      <c r="F11" t="str">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -586,7 +589,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012101520252511100</v>
+        <v>0101210152025251110100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -529,9 +529,89 @@
         <v>100</v>
       </c>
     </row>
+    <row r="12">
+      <c r="C12" t="str">
+        <v>462_五针松_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F12" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="str">
+        <v>816_山里红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F13" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="str">
+        <v>348_万年青_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F14" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3</v>
+      </c>
+      <c r="C15" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="str">
+        <v>160_卡布奇诺_Cappuccino_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F16" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="str">
+        <v>180_月光漫步_Moon Walk_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F17" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="str">
+        <v>170_奶油杯_Butter Cup_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F18" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="str">
+        <v>439_九星叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F19" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="str">
+        <v>322_喷泉草_Grasses Panicum_undefined_1bunch</v>
+      </c>
+      <c r="F20" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -589,7 +669,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101210152025251110100</v>
+        <v>0101210152025251110100551031313810100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -608,6 +608,9 @@
       <c r="A21" t="str">
         <v>4</v>
       </c>
+      <c r="C21" t="str">
+        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -609,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="C21" t="str">
-        <v>522_山归来绿_Smilax china_undefined_1bunch</v>
+        <v>688_山归来橙_undefined_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -611,6 +611,9 @@
       <c r="C21" t="str">
         <v>688_山归来橙_undefined_undefined_1bunch</v>
       </c>
+      <c r="F21" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -672,7 +675,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101210152025251110100551031313810100</v>
+        <v>01012101520252511101005510313138101015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -615,9 +615,86 @@
         <v>15</v>
       </c>
     </row>
+    <row r="22">
+      <c r="C22" t="str">
+        <v>321_雪柳叶_Spiraea  leaves_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>324_小手球_Spiraea flower double petals_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>449_柔丽思 绿_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>106_绣球粉_Hydrangea Pink S_Hydrangea L._1stem</v>
+      </c>
+      <c r="F26" t="str">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F27" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>493_咖喱花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="str">
+        <v>238_苏菲宝贝_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F29" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F30" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="str">
+        <v>615_康乃馨野马_horse_undefined_20stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -675,7 +752,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012101520252511101005510313138101015</v>
+        <v>01012101520252511101005510313138101015105121060810660</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -691,6 +691,9 @@
       <c r="C31" t="str">
         <v>615_康乃馨野马_horse_undefined_20stems</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -752,7 +755,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012101520252511101005510313138101015105121060810660</v>
+        <v>01012101520252511101005510313138101015105121060810665</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -695,9 +695,92 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>608_康乃馨笑颜_undefined_undefined_20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>610_康乃馨黄_yellow_undefined_20stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>5</v>
+      </c>
+      <c r="C34" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="C35" t="str">
+        <v>192_粉荔枝_Pink Ohara_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F35" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" t="str">
+        <v>680_锦鲤黄_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F37" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>6</v>
+      </c>
+      <c r="C38" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -755,7 +838,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01012101520252511101005510313138101015105121060810665</v>
+        <v>010121015202525111010055103131381010151051210608106651097575151050</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -777,6 +777,9 @@
       <c r="A41" t="str">
         <v>7</v>
       </c>
+      <c r="C41" t="str">
+        <v>780_贝壳草_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -780,6 +780,9 @@
       <c r="C41" t="str">
         <v>780_贝壳草_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -841,7 +844,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>010121015202525111010055103131381010151051210608106651097575151050</v>
+        <v>0101210152025251110100551031313810101510512106081066510975751510513</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,9 +784,22 @@
         <v>13</v>
       </c>
     </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>558_油画小菊_Helenium_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L43"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -844,7 +857,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101210152025251110100551031313810101510512106081066510975751510513</v>
+        <v>0101210152025251110100551031313810101510512106081066510975751510513100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-31.xlsx
@@ -796,6 +796,9 @@
       <c r="C43" t="str">
         <v>653_大丽花 黑_undefined_undefined_5stems</v>
       </c>
+      <c r="F43" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -857,7 +860,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0101210152025251110100551031313810101510512106081066510975751510513100</v>
+        <v>01012101520252511101005510313138101015105121060810665109757515105131010</v>
       </c>
     </row>
   </sheetData>
